--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582B38A-44D6-4131-BE90-925AD4AC2D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A8F95-7967-4CCB-B009-64798CABF746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="5988" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="7968" yWindow="10368" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -36,81 +36,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액터 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:actor_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>액터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_function_value</t>
+  </si>
+  <si>
+    <t>액터 기능 관련 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_stat_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액터 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터_임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp_character_01</t>
-  </si>
-  <si>
-    <t>temp_monster_01</t>
-  </si>
-  <si>
-    <t>enum:actor_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsc_id</t>
+  </si>
+  <si>
+    <t>리소스 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_pc_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_mon_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,190 +552,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A8F95-7967-4CCB-B009-64798CABF746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DBF6A-4F65-4F4D-B2E0-DB4CE18B07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7968" yWindow="10368" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="4176" yWindow="14160" windowWidth="15060" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2000001</v>
+        <v>20001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>

--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DBF6A-4F65-4F4D-B2E0-DB4CE18B07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC932EA-BFC9-45D1-A2D5-5E5B0B6C2476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="14160" windowWidth="15060" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="4170" yWindow="14160" windowWidth="15060" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -73,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터_임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:actor_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +104,18 @@
   </si>
   <si>
     <t>n_mon_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_주술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_탱커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,18 +553,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
     <col min="5" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -578,16 +575,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,37 +592,37 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -633,112 +630,134 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>2000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -746,7 +765,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -754,7 +773,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC932EA-BFC9-45D1-A2D5-5E5B0B6C2476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F69597-3E3D-4157-9FFE-E7D81962A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="14160" windowWidth="15060" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8184" yWindow="4668" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -117,6 +117,12 @@
   <si>
     <t>몬스터_탱커</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_엘리트</t>
+  </si>
+  <si>
+    <t>몬스터_전사_보스</t>
   </si>
 </sst>
 </file>
@@ -253,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,18 +559,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
     <col min="5" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="3"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -584,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -640,7 +646,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20001</v>
       </c>
@@ -658,7 +664,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
@@ -676,7 +682,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20002</v>
       </c>
@@ -694,70 +700,92 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>20101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20201</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -765,7 +793,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -773,7 +801,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F69597-3E3D-4157-9FFE-E7D81962A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A4A27-D26E-4FAA-BDBE-E2C3C709E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8184" yWindow="4668" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5640" yWindow="6396" windowWidth="24792" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>int</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>몬스터_전사_보스</t>
+  </si>
+  <si>
+    <t>상점 특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_npc_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -737,11 +749,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>999</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000001</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>

--- a/GameData/Excel/actor.xlsx
+++ b/GameData/Excel/actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A4A27-D26E-4FAA-BDBE-E2C3C709E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFD855-7888-4397-9D7D-6788CE9A4A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="6396" windowWidth="24792" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5640" yWindow="6390" windowWidth="24795" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>int</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>n_npc_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -417,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,22 +591,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
     <col min="5" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -602,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -622,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -640,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -658,7 +684,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20001</v>
       </c>
@@ -676,7 +702,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
@@ -694,7 +720,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20002</v>
       </c>
@@ -712,7 +738,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20101</v>
       </c>
@@ -730,7 +756,7 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20201</v>
       </c>
@@ -748,92 +774,201 @@
         <v>2000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>999</v>
+        <v>21001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>21003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>21101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>21101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>21201</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>999</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1">
-        <v>2000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>2000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>